--- a/inputs/data/Datasets_table.xlsx
+++ b/inputs/data/Datasets_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfernandez diaz\Documents\DATA SECTION\Data reporting guidelines\data-reporting-guidelines\inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B36CF3A-107E-4CBB-A7CA-F2FF51E1189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B62FF47-0938-4F08-88E7-FD090CD67913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{529A4D57-433C-4D9E-BCCF-63823F227974}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>Retained catches</t>
   </si>
@@ -298,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -669,11 +669,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,6 +838,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,14 +853,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -888,23 +919,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B9668D-7E8F-49A7-80C3-CAA7B8015B25}">
   <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,19 +1283,19 @@
       <c r="B3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="51" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1287,24 +1303,24 @@
       <c r="B4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="49" t="s">
         <v>31</v>
       </c>
@@ -1313,19 +1329,19 @@
       <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="66" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1333,84 +1349,84 @@
       <c r="B7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="55"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="61"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="55"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="55"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="61"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="55"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="55"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="62"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="50" t="s">
         <v>31</v>
       </c>
@@ -1439,19 +1455,19 @@
       <c r="B15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="51" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1459,67 +1475,67 @@
       <c r="B16" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="55"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="55"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="55"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="59"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="56"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="71"/>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="60" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1527,45 +1543,43 @@
       <c r="B21" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="73"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="78"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="68"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1573,26 +1587,24 @@
       <c r="B24" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="55"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="F24" s="76"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="71"/>
+      <c r="F25" s="77"/>
       <c r="G25" s="31" t="s">
         <v>31</v>
       </c>
@@ -1601,17 +1613,17 @@
       <c r="B26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="54" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="51" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1619,24 +1631,24 @@
       <c r="B27" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="56"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="56"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="71"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="49" t="s">
         <v>31</v>
       </c>
@@ -1705,19 +1717,19 @@
       <c r="B32" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1725,24 +1737,24 @@
       <c r="B33" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="76"/>
-      <c r="G33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="52"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="77"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="50" t="s">
         <v>31</v>
       </c>
@@ -1808,17 +1820,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D23:D25"/>
+  <mergeCells count="26">
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="C3:C5"/>
@@ -1833,6 +1835,18 @@
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/data/Datasets_table.xlsx
+++ b/inputs/data/Datasets_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfernandez diaz\Documents\DATA SECTION\Data reporting guidelines\data-reporting-guidelines\inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B62FF47-0938-4F08-88E7-FD090CD67913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D175717A-75F1-45AE-ADFE-410A16C47A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{529A4D57-433C-4D9E-BCCF-63823F227974}"/>
   </bookViews>
@@ -239,9 +239,6 @@
     <t>Interactions with anchored fish aggregating devices (AFADs)</t>
   </si>
   <si>
-    <t>Interactions with drifting floating objects (DFADs and natural objects) by purse seine and supply vessels</t>
-  </si>
-  <si>
     <t>17/05</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>Interactions with anchored fish aggregating devices by date and location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactions with drifting floating objects (DFADs and natural objects) </t>
   </si>
 </sst>
 </file>
@@ -844,6 +844,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,9 +913,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -873,54 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,7 +1245,7 @@
   <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1292,7 @@
       <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="63" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="51" t="s">
@@ -1303,12 +1303,12 @@
       <c r="B4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="52"/>
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1320,7 +1320,7 @@
       <c r="E5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="49" t="s">
         <v>31</v>
       </c>
@@ -1332,13 +1332,13 @@
       <c r="C6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="54" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="51" t="s">
@@ -1349,84 +1349,84 @@
       <c r="B7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="67"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="59"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="59"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="59"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="67"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="59"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="59"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="59"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="68"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="50" t="s">
         <v>31</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="E15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="60" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="51" t="s">
@@ -1475,37 +1475,37 @@
       <c r="B16" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="59"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
@@ -1516,23 +1516,23 @@
       <c r="E19" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="52"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="76" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="63" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="51" t="s">
@@ -1543,24 +1543,24 @@
       <c r="B21" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="61"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="78"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="74"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="31" t="s">
         <v>31</v>
       </c>
@@ -1569,14 +1569,14 @@
       <c r="B23" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="66" t="s">
         <v>64</v>
       </c>
       <c r="G23" s="51" t="s">
@@ -1587,24 +1587,24 @@
       <c r="B24" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="78"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="52"/>
       <c r="E25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="77"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="31" t="s">
         <v>31</v>
       </c>
@@ -1613,14 +1613,14 @@
       <c r="B26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="51" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="66" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="51" t="s">
@@ -1631,24 +1631,24 @@
       <c r="B27" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="59"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="76"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="52"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="54"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="52"/>
       <c r="E28" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="77"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="49" t="s">
         <v>31</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>24</v>
@@ -1687,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>12</v>
@@ -1717,16 +1717,16 @@
       <c r="B32" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="70" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="73" t="s">
         <v>28</v>
       </c>
       <c r="G32" s="51" t="s">
@@ -1735,26 +1735,26 @@
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+        <v>67</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="52"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="75"/>
       <c r="G34" s="50" t="s">
         <v>31</v>
       </c>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="36" spans="2:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>29</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="37" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>32</v>
@@ -1821,6 +1821,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="C3:C5"/>
@@ -1837,16 +1847,6 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
